--- a/BackTest/2020-01-20 BackTest IPX.xlsx
+++ b/BackTest/2020-01-20 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
         <v>-615805.7646690953</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-641157.0043690953</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-640556.5073690953</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-639627.5334690954</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-639627.5334690954</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-646783.3008690954</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-638304.3122690953</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-641427.2936690954</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-637929.3981690954</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-637929.3981690954</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-633785.6184690954</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-635100.9352690955</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-629994.2395690954</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-631424.9423690954</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-633536.8015690953</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-685183.1004690954</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-682336.2796690954</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-681636.4999690955</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-684456.0093690954</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-684456.0093690954</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-687343.3701690955</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-677254.0627690954</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-679289.4250690955</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-674942.9155690954</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-679357.6046690954</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-674214.6174690954</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-675657.8130690954</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-669158.2966690954</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-670557.8561690954</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-666986.2419690954</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-666986.2419690954</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-664165.0898690955</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-664165.0898690955</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-664165.0898690955</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-669527.2487690955</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-669527.2487690955</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-669527.2487690955</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-672319.9760690955</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-669520.8570690956</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-724548.4009690956</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-723848.6212690957</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-721657.8169690957</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-720958.0372690958</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-720958.0372690958</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-723847.7388690958</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-720652.4055690957</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-724184.8325690958</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-724184.8325690958</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-724184.8325690958</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-728461.6304690958</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-728461.6304690958</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-724224.9959690957</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-728447.7444690957</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-731246.8634690957</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-731946.6431690956</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-737597.4770690956</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-737597.4770690956</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-739751.2770690956</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-736856.5849690957</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-713131.5761690957</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-715252.1611690957</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-715252.1611690957</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-717435.0520690957</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-713735.7127690957</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-715346.5716690957</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-713225.2582690957</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-713225.2582690957</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-715381.5228690957</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-707015.9634690956</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-707015.9634690956</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-707015.9634690956</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-697195.1837690957</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-693696.2849690957</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-695793.5225690957</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-690895.0642690957</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-693069.2817690957</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-688764.9209690957</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-696920.9369690956</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-692673.5179690956</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-695472.6369690956</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-695472.6369690956</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-695472.6369690956</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-691273.9585690956</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-693373.2978690956</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-691282.5569690956</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-692295.7099690957</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-692295.7099690957</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-694395.0492690956</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-692995.4897690957</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-690836.5056690957</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-695076.3660690957</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-692977.0267690957</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-692977.0267690957</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-697324.2309690957</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-701666.3666690957</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-701666.3666690957</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-709041.4668690957</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-692376.8045690957</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-692376.8045690957</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-692376.8045690957</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-692376.8045690957</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-688163.6646690958</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-689563.2241690957</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-685357.7902690958</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-688228.1049690958</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-687528.3252690958</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-691896.8848690959</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-687589.2521690959</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-693187.4902690959</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-691003.3472690958</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-684461.9802690959</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-688052.6517690959</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-688052.6517690959</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-688752.4314690959</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-688752.4314690959</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-685224.0412690958</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-685224.0412690958</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-687323.3804690959</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-683061.1912690959</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-683760.9709690958</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-677373.1934690959</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-678772.7529690958</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-676667.4734690959</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-676667.4734690959</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-678067.0329690959</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-673749.1471690958</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-675848.4864690958</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-679426.3631690958</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-679426.3631690958</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-683710.3519690959</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-683710.3519690959</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-676538.6257690958</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-698589.2684690958</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-696484.7508690958</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-693662.3525690958</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-693662.3525690958</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-696472.6507690958</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-690069.3090690958</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-694898.4900690957</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-694198.7103690958</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-694198.7103690958</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-695598.2698690958</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-692116.0713690957</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-696406.6313690958</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-695706.8516690958</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-704950.4272690958</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-702851.0879690958</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-707049.7665690958</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-704250.6476690958</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-704250.6476690958</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-700751.7489690958</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-702851.0882690958</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-702851.0882690958</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-702851.0882690958</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-702851.0882690958</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-705016.6288690957</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-700681.0591690957</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-700681.0591690957</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-702080.6186690957</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-702780.3983690956</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-699281.4995690957</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-699281.4995690957</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-699281.4995690957</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-704279.4325690956</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-704279.4325690956</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-702879.8730690957</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-702879.8730690957</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-705737.3771690957</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-710663.8706690957</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-706375.6866690957</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-706375.6866690957</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-706375.6866690957</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-706375.6866690957</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-711295.2453690957</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-718288.5238690957</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-713770.1184690957</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-710271.2197690957</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-714898.6992690957</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-714076.6012690957</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-716308.0253690956</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-716308.0253690956</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-716308.0253690956</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-716308.0253690956</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-711904.3159690956</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-711904.3159690956</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-711904.3159690956</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-715302.8376690956</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-709704.2445690956</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-709704.2445690956</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-709704.2445690956</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-709704.2445690956</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-709704.2445690956</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-712014.0612690955</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-712014.0612690955</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-712014.0612690955</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-712014.0612690955</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-709690.0643690955</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-711940.9992690955</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-705486.9416690955</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-705486.9416690955</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-705486.9416690955</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-709795.6051690956</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-707001.2968690955</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-707001.2968690955</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-732223.9633690956</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-732223.9633690956</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-728629.8997690956</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-730787.8423690955</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-730088.0626690956</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-732916.2740690956</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-725731.3208690955</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-732227.3303690956</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-753791.6925690955</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-751684.4811690955</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-747471.3763690955</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-752995.5840690957</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-752995.5840690957</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-752995.5840690957</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-757272.6353690957</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-755173.2960690957</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-749194.7996814597</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-742736.6203846567</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-745117.4734618637</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-742227.5027618638</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-742227.5027618638</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-744381.9055618638</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-745081.6852618637</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-744381.9055618638</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-747181.0245618637</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-745081.6852618637</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-747014.4921618637</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-742368.1866618637</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-740268.8473618637</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-745996.7288618637</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-743856.9157618637</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-748792.7745618637</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-748792.7745618637</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-750192.3339618638</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-753664.1070618638</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-751564.7677618638</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-751564.7677618638</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-753664.1069618638</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-750864.9879618639</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-751564.7676618638</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-748684.6655618638</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-749384.4452618638</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-749384.4452618638</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-747255.5972618638</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-747255.5972618638</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-742970.0320618638</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-745063.3191618638</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-756348.0046618638</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-756348.0046618638</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-758455.2247618638</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-757055.6652618638</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-757055.6652618638</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-761355.8692618639</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-759240.5013618639</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-783258.605161864</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-785525.108761864</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-785525.108761864</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-794823.126561864</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-807792.725861864</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-820422.624661864</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-983473.9266924479</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-983473.9266924479</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-983473.9266924479</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-982774.1469924479</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-986978.7732924479</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-986978.7732924479</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-986978.7732924479</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-982748.8259924479</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-982748.8259924479</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-985595.8727924479</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-983498.7899924479</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-983498.7899924479</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-984198.5696924479</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-979993.1408924479</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-982163.2393924479</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-981463.4596924479</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-982863.0191924479</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-982863.0191924479</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-986898.8034924479</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-996808.5831924479</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-998208.1425924479</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-998208.1425924479</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-998208.1425924479</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-992004.9032924479</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-967043.2691022638</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-967854.2540022638</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-943783.279433278</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-939658.040433278</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-938958.260733278</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-937513.250533278</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-939612.589733278</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-939612.589733278</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-957526.8407332781</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-980491.918133278</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-975597.839333278</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1086608.677560124</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1086608.677560124</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1086608.677560124</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-777138.585600375</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-880235.7534003749</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-846190.2752003749</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-519872.9450003749</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-569738.499800375</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-594155.023900375</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-603123.2544003751</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-617117.7470003751</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-629636.1905003751</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-640698.8600003751</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-663758.885800375</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-657300.647400375</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-684218.051500375</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-707785.2570003751</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-704977.1380003751</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-708846.5902003752</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-758697.5321003752</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-785480.7697003752</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-818553.0147003751</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-842934.4838003751</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-857417.1397003751</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-859854.5674003751</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-889205.6817003752</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-889205.6817003752</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-889205.6817003752</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-893192.3034003752</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-893192.3034003752</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-885380.6612003752</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-887498.0005003752</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-883204.0202003751</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-886132.0568003751</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-886132.0568003751</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-886132.0568003751</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-880612.7690003751</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-884111.667800375</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-882712.1083003751</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-1062829.600025217</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-1062829.600025217</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-1055182.814400375</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-1054474.034700375</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-1057972.933400375</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-1078852.860100375</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-1082425.409700375</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-1085645.363000375</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-1077571.912100375</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-1094064.080800375</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-1094064.080800375</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-1063693.159500375</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-1066546.937700375</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-1024367.752400375</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-1022268.413100375</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-1021568.633400375</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-1027855.222900375</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-1030614.604000375</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-1032814.383700375</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-1022004.407300374</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-1023004.187000374</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-1007980.083700374</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-1007980.083700374</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-1080887.040300374</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-1080187.260600374</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-1251769.14022401</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-1252468.91992401</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-1251069.36042401</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-1251069.36042401</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-1256768.45522401</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-1246200.47312401</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-1248299.81232401</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-1228716.73162401</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-1232279.22902401</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-1239561.10332401</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-1242281.43612401</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-1238750.12632401</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-1238750.12632401</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-1239449.90602401</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-1239449.90602401</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-1241560.20702401</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-1237300.66042401</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-1229021.98632401</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-1225102.08342401</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-1106882.62852401</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-1017419.66692401</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-1010411.62042401</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-984491.7788240099</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-995393.42662401</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-999605.47412401</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-997501.4350240099</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-1008733.52392401</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-1018822.57672401</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-1018122.79702401</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-1004786.02812401</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-1008281.47002401</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-1008281.47002401</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-992553.6647240098</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-994653.0040240098</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-1000155.44952401</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-997977.3324240098</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-997977.3324240098</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-997977.3324240098</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-997277.5527240098</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-1000076.67172401</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-997211.1280240099</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-997211.1280240099</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-987505.4160240099</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-991004.3148240099</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-991004.3148240099</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-1002548.37362401</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-1000455.92172401</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-999056.3622240099</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-986992.1338148678</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-984099.9896148678</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-986271.4126148678</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-986271.4126148678</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-986271.4126148678</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-984109.5817148678</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-986946.7272148678</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-987646.5069148678</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-987646.5069148678</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-991986.3555148678</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-992018.3021148678</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-998316.3200148678</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-973521.1461148678</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-973521.1461148678</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-994872.2540148677</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-999856.9762148677</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-989318.8279148677</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-1160802.050009079</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>-1163601.169009079</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-1140339.083160889</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-1143843.021660889</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>-1143143.241960888</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>-1149509.032160888</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>-1148109.472660888</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>-1148809.252460888</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>-1201240.945060888</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>-1198925.965860888</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-1203160.372760888</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-1203860.152460888</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-1199394.325920285</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-1206502.026420285</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-1206502.026420285</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>-1193636.160020285</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>-1276834.941120285</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>-1278234.500520285</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>-1278234.500520285</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>-1278234.500520285</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>-1272555.502620285</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>-1270421.880120285</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36256,7 +36256,7 @@
         <v>-1244470.838720285</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
         <v>-1234416.987920285</v>
       </c>
       <c r="H1099" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -36685,7 +36685,7 @@
         <v>-1232282.858420285</v>
       </c>
       <c r="H1100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -36718,7 +36718,7 @@
         <v>-1235785.287620285</v>
       </c>
       <c r="H1101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -36751,7 +36751,7 @@
         <v>-1235085.507920285</v>
       </c>
       <c r="H1102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -36784,7 +36784,7 @@
         <v>-1241585.265920285</v>
       </c>
       <c r="H1103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -36850,7 +36850,7 @@
         <v>-1243684.607520285</v>
       </c>
       <c r="H1105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -36883,7 +36883,7 @@
         <v>-1245783.946820285</v>
       </c>
       <c r="H1106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -36949,7 +36949,7 @@
         <v>-1248602.465120285</v>
       </c>
       <c r="H1108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -36982,7 +36982,7 @@
         <v>-1248602.465120285</v>
       </c>
       <c r="H1109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37015,7 +37015,7 @@
         <v>-1251401.584120285</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -37048,7 +37048,7 @@
         <v>-1252123.363820285</v>
       </c>
       <c r="H1111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -37081,7 +37081,7 @@
         <v>-1254222.703120285</v>
       </c>
       <c r="H1112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -37114,7 +37114,7 @@
         <v>-1263237.094220285</v>
       </c>
       <c r="H1113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -37147,7 +37147,7 @@
         <v>-1259007.089020285</v>
       </c>
       <c r="H1114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -37609,7 +37609,7 @@
         <v>-1257585.535320284</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37642,7 +37642,7 @@
         <v>-1254729.876920284</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37675,7 +37675,7 @@
         <v>-1252400.883892878</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -37708,7 +37708,7 @@
         <v>-1245075.536592878</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -37741,7 +37741,7 @@
         <v>-1247174.875792878</v>
       </c>
       <c r="H1132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -37807,7 +37807,7 @@
         <v>-1246458.025320294</v>
       </c>
       <c r="H1134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -37840,7 +37840,7 @@
         <v>-1246458.025320294</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -37873,7 +37873,7 @@
         <v>-1248581.371320294</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -37906,7 +37906,7 @@
         <v>-1250868.361520294</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -37939,7 +37939,7 @@
         <v>-1246492.560820294</v>
       </c>
       <c r="H1138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -37972,7 +37972,7 @@
         <v>-1250161.459220294</v>
       </c>
       <c r="H1139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38005,7 +38005,7 @@
         <v>-1248728.277720294</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38038,7 +38038,7 @@
         <v>-1250837.552920294</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -38071,7 +38071,7 @@
         <v>-1252268.216620294</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -38104,7 +38104,7 @@
         <v>-1250159.649320294</v>
       </c>
       <c r="H1143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -38137,7 +38137,7 @@
         <v>-1250159.649320294</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -38170,7 +38170,7 @@
         <v>-1250859.429020294</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -38203,7 +38203,7 @@
         <v>-1254532.570320294</v>
       </c>
       <c r="H1146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -38236,7 +38236,7 @@
         <v>-1254532.570320294</v>
       </c>
       <c r="H1147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -38269,7 +38269,7 @@
         <v>-1248924.761720294</v>
       </c>
       <c r="H1148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -38368,7 +38368,7 @@
         <v>-1287737.538620294</v>
       </c>
       <c r="H1151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -38401,7 +38401,7 @@
         <v>-1291936.515720294</v>
       </c>
       <c r="H1152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -38434,7 +38434,7 @@
         <v>-1286262.184720294</v>
       </c>
       <c r="H1153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -38467,7 +38467,7 @@
         <v>-1286262.184720294</v>
       </c>
       <c r="H1154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -38533,7 +38533,7 @@
         <v>-1326804.135620294</v>
       </c>
       <c r="H1156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -38599,7 +38599,7 @@
         <v>-1325307.564920294</v>
       </c>
       <c r="H1158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -38665,7 +38665,7 @@
         <v>-1322508.445920294</v>
       </c>
       <c r="H1160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40546,10 +40546,14 @@
         <v>-1917509.544375475</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>55.33</v>
+      </c>
       <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
@@ -40579,11 +40583,19 @@
         <v>-1914636.418475475</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>55.34</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40612,11 +40624,19 @@
         <v>-1888573.610875475</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40645,10 +40665,14 @@
         <v>-1887873.831175475</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>55.58</v>
+      </c>
       <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
@@ -40678,11 +40702,19 @@
         <v>-1878587.103675475</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40711,11 +40743,19 @@
         <v>-1878587.103675475</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -40744,10 +40784,14 @@
         <v>-1880686.442975475</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
@@ -40777,11 +40821,19 @@
         <v>-1884965.577875475</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -40813,8 +40865,14 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -40846,8 +40904,14 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -40879,8 +40943,14 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -40912,8 +40982,14 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -40945,8 +41021,14 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -40975,11 +41057,19 @@
         <v>-1934647.329075475</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41008,11 +41098,19 @@
         <v>-1912443.318775475</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41044,8 +41142,14 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41074,11 +41178,19 @@
         <v>-1941948.890075475</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41107,11 +41219,19 @@
         <v>-1937842.709375475</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41140,11 +41260,19 @@
         <v>-1941471.259375475</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41173,11 +41301,19 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41206,11 +41342,19 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41239,11 +41383,19 @@
         <v>-1939931.667975475</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41272,11 +41424,19 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41305,11 +41465,19 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41338,11 +41506,19 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41371,11 +41547,19 @@
         <v>-1940486.313194568</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41404,11 +41588,19 @@
         <v>-1937585.310594568</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41437,11 +41629,19 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41470,11 +41670,19 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41503,15 +41711,19 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1246" t="n">
         <v>55.22</v>
       </c>
       <c r="J1246" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="K1246" t="inlineStr"/>
+        <v>55.79</v>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41540,15 +41752,17 @@
         <v>-1950257.122694568</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>55.35</v>
+      </c>
       <c r="J1247" t="n">
-        <v>55.22</v>
+        <v>55.79</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1247" t="n">
@@ -41579,15 +41793,17 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>55.37</v>
+      </c>
       <c r="J1248" t="n">
-        <v>55.22</v>
+        <v>55.79</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1248" t="n">
@@ -41618,11 +41834,19 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41651,15 +41875,17 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1250" t="n">
         <v>55.38</v>
       </c>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1250" t="n">
@@ -41690,10 +41916,14 @@
         <v>-1947465.337594568</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41727,12 +41957,14 @@
         <v>-1943266.659094568</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>55.39</v>
       </c>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41766,12 +41998,14 @@
         <v>-1942566.879394568</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1253" t="n">
         <v>55.41</v>
       </c>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41805,10 +42039,14 @@
         <v>-1941762.611094568</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41842,10 +42080,14 @@
         <v>-1935948.118375475</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41882,7 +42124,9 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41919,7 +42163,9 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41956,7 +42202,9 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41993,7 +42241,9 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42030,7 +42280,9 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42067,7 +42319,9 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42104,7 +42358,9 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42141,7 +42397,9 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42178,7 +42436,9 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42215,7 +42475,9 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42249,10 +42511,14 @@
         <v>-2043585.337875475</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42286,12 +42552,14 @@
         <v>-2064909.363275475</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>55.26</v>
       </c>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42325,12 +42593,14 @@
         <v>-2064209.583575475</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1268" t="n">
         <v>55.25</v>
       </c>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42364,12 +42634,14 @@
         <v>-2064209.583575475</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1269" t="n">
         <v>55.38</v>
       </c>
-      <c r="J1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42403,12 +42675,14 @@
         <v>-2064209.583575475</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1270" t="n">
         <v>55.38</v>
       </c>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42442,12 +42716,14 @@
         <v>-2065644.332875475</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1271" t="n">
         <v>55.38</v>
       </c>
-      <c r="J1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42481,12 +42757,14 @@
         <v>-2065644.332875475</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1272" t="n">
         <v>55.25</v>
       </c>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42520,12 +42798,14 @@
         <v>-2065644.332875475</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1273" t="n">
         <v>55.25</v>
       </c>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42559,12 +42839,14 @@
         <v>-2065644.332875475</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1274" t="n">
         <v>55.25</v>
       </c>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42598,12 +42880,14 @@
         <v>-2059217.366475475</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>55.25</v>
       </c>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42637,12 +42921,14 @@
         <v>-2052428.776575475</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1276" t="n">
         <v>55.39</v>
       </c>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42676,12 +42962,14 @@
         <v>-2013805.932675475</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1277" t="n">
         <v>55.41</v>
       </c>
-      <c r="J1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42715,12 +43003,14 @@
         <v>-1990271.899375475</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1278" t="n">
         <v>55.54</v>
       </c>
-      <c r="J1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42754,12 +43044,14 @@
         <v>-1896087.531236661</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1279" t="n">
         <v>55.61</v>
       </c>
-      <c r="J1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42796,7 +43088,9 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42833,7 +43127,9 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42870,7 +43166,9 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42907,7 +43205,9 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42944,7 +43244,9 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42981,7 +43283,9 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43018,7 +43322,9 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43055,7 +43361,9 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43092,7 +43400,9 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43129,7 +43439,9 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43166,7 +43478,9 @@
         <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43203,7 +43517,9 @@
         <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43240,7 +43556,9 @@
         <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43277,7 +43595,9 @@
         <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43314,7 +43634,9 @@
         <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43351,7 +43673,9 @@
         <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="inlineStr"/>
+      <c r="J1295" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43388,7 +43712,9 @@
         <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43425,7 +43751,9 @@
         <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43462,7 +43790,9 @@
         <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43499,7 +43829,9 @@
         <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43536,7 +43868,9 @@
         <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="inlineStr"/>
+      <c r="J1300" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43573,7 +43907,9 @@
         <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43610,7 +43946,9 @@
         <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43647,7 +43985,9 @@
         <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43684,7 +44024,9 @@
         <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="inlineStr"/>
+      <c r="J1304" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43721,7 +44063,9 @@
         <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="inlineStr"/>
+      <c r="J1305" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43758,7 +44102,9 @@
         <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="inlineStr"/>
+      <c r="J1306" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43795,7 +44141,9 @@
         <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="inlineStr"/>
+      <c r="J1307" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43832,7 +44180,9 @@
         <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="inlineStr"/>
+      <c r="J1308" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43869,7 +44219,9 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="inlineStr"/>
+      <c r="J1309" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43906,7 +44258,9 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="inlineStr"/>
+      <c r="J1310" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43943,7 +44297,9 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="inlineStr"/>
+      <c r="J1311" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43980,7 +44336,9 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="inlineStr"/>
+      <c r="J1312" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44017,7 +44375,9 @@
         <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="inlineStr"/>
+      <c r="J1313" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44054,7 +44414,9 @@
         <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="inlineStr"/>
+      <c r="J1314" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44091,7 +44453,9 @@
         <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="inlineStr"/>
+      <c r="J1315" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44128,7 +44492,9 @@
         <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="inlineStr"/>
+      <c r="J1316" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44165,7 +44531,9 @@
         <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="inlineStr"/>
+      <c r="J1317" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44202,7 +44570,9 @@
         <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="inlineStr"/>
+      <c r="J1318" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44239,7 +44609,9 @@
         <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="inlineStr"/>
+      <c r="J1319" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44276,7 +44648,9 @@
         <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="inlineStr"/>
+      <c r="J1320" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44310,10 +44684,14 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44347,10 +44725,14 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44384,10 +44766,14 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44421,10 +44807,14 @@
         <v>-1502964.670441059</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44458,10 +44848,14 @@
         <v>-1498672.399441059</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44498,7 +44892,9 @@
         <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="inlineStr"/>
+      <c r="J1326" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44535,7 +44931,9 @@
         <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="inlineStr"/>
+      <c r="J1327" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44572,7 +44970,9 @@
         <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="inlineStr"/>
+      <c r="J1328" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44609,7 +45009,9 @@
         <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="inlineStr"/>
+      <c r="J1329" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44646,7 +45048,9 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="inlineStr"/>
+      <c r="J1330" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44683,7 +45087,9 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="inlineStr"/>
+      <c r="J1331" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44720,7 +45126,9 @@
         <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="inlineStr"/>
+      <c r="J1332" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44757,7 +45165,9 @@
         <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="inlineStr"/>
+      <c r="J1333" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44794,7 +45204,9 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="inlineStr"/>
+      <c r="J1334" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44831,7 +45243,9 @@
         <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="inlineStr"/>
+      <c r="J1335" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44868,7 +45282,9 @@
         <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="inlineStr"/>
+      <c r="J1336" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44905,7 +45321,9 @@
         <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="inlineStr"/>
+      <c r="J1337" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44942,7 +45360,9 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="inlineStr"/>
+      <c r="J1338" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44979,7 +45399,9 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="inlineStr"/>
+      <c r="J1339" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45016,7 +45438,9 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="inlineStr"/>
+      <c r="J1340" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45053,7 +45477,9 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="inlineStr"/>
+      <c r="J1341" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45090,7 +45516,9 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="inlineStr"/>
+      <c r="J1342" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45127,7 +45555,9 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="inlineStr"/>
+      <c r="J1343" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45164,7 +45594,9 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="inlineStr"/>
+      <c r="J1344" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45201,7 +45633,9 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="inlineStr"/>
+      <c r="J1345" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45238,7 +45672,9 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="inlineStr"/>
+      <c r="J1346" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45275,7 +45711,9 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="inlineStr"/>
+      <c r="J1347" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45312,7 +45750,9 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="inlineStr"/>
+      <c r="J1348" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45349,7 +45789,9 @@
         <v>0</v>
       </c>
       <c r="I1349" t="inlineStr"/>
-      <c r="J1349" t="inlineStr"/>
+      <c r="J1349" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45386,7 +45828,9 @@
         <v>0</v>
       </c>
       <c r="I1350" t="inlineStr"/>
-      <c r="J1350" t="inlineStr"/>
+      <c r="J1350" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45423,7 +45867,9 @@
         <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
-      <c r="J1351" t="inlineStr"/>
+      <c r="J1351" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45460,7 +45906,9 @@
         <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
-      <c r="J1352" t="inlineStr"/>
+      <c r="J1352" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45497,7 +45945,9 @@
         <v>0</v>
       </c>
       <c r="I1353" t="inlineStr"/>
-      <c r="J1353" t="inlineStr"/>
+      <c r="J1353" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45534,7 +45984,9 @@
         <v>0</v>
       </c>
       <c r="I1354" t="inlineStr"/>
-      <c r="J1354" t="inlineStr"/>
+      <c r="J1354" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45571,7 +46023,9 @@
         <v>0</v>
       </c>
       <c r="I1355" t="inlineStr"/>
-      <c r="J1355" t="inlineStr"/>
+      <c r="J1355" t="n">
+        <v>55.79</v>
+      </c>
       <c r="K1355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45583,6 +46037,6 @@
       <c r="M1355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest IPX.xlsx
+++ b/BackTest/2020-01-20 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -19030,7 +19030,7 @@
         <v>-1190820.266100375</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-908668.1608003748</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-910104.0839003748</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-901451.9626003748</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-869227.9613003748</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-903089.3600003748</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-901689.8005003749</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-902435.9438003749</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-594698.4998003748</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-519872.9450003749</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-569738.499800375</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-594155.023900375</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-603123.2544003751</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-617117.7470003751</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-629636.1905003751</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-640698.8600003751</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-663758.885800375</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-657300.647400375</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-684218.051500375</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-707785.2570003751</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-704977.1380003751</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-708846.5902003752</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-758697.5321003752</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-785480.7697003752</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-818553.0147003751</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-842934.4838003751</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-857417.1397003751</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-859854.5674003751</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-889205.6817003752</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-889205.6817003752</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-889205.6817003752</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-893192.3034003752</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-893192.3034003752</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-885380.6612003752</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-887498.0005003752</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-883204.0202003751</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-886132.0568003751</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-886132.0568003751</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-886132.0568003751</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-880612.7690003751</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-884111.667800375</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-882712.1083003751</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -40546,14 +40546,10 @@
         <v>-1917509.544375475</v>
       </c>
       <c r="H1217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="J1217" t="n">
-        <v>55.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
@@ -40583,1988 +40579,1656 @@
         <v>-1914636.418475475</v>
       </c>
       <c r="H1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>55.34</v>
-      </c>
-      <c r="J1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
+      <c r="J1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr"/>
+      <c r="L1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>26062.8076</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>-1888573.610875475</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
+      <c r="J1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr"/>
+      <c r="L1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>699.7797</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>-1887873.831175475</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1220" t="inlineStr"/>
+      <c r="J1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr"/>
+      <c r="L1220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>9286.727500000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>-1878587.103675475</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1221" t="inlineStr"/>
+      <c r="J1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr"/>
+      <c r="L1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>699.7797</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>-1878587.103675475</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1222" t="inlineStr"/>
+      <c r="J1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr"/>
+      <c r="L1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2099.3393</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>-1880686.442975475</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
+      <c r="J1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr"/>
+      <c r="L1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>4279.1349</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>-1884965.577875475</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1224" t="inlineStr"/>
+      <c r="J1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr"/>
+      <c r="L1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>4928.9787</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>-1880036.599175475</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
+      <c r="J1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr"/>
+      <c r="L1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>55.76</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>5763.0366</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>-1885799.635775475</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1226" t="inlineStr"/>
+      <c r="J1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr"/>
+      <c r="L1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>5330.4959</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>-1891130.131675475</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
+      <c r="J1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr"/>
+      <c r="L1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="C1228" t="n">
         <v>55.33</v>
       </c>
-      <c r="K1218" t="inlineStr">
+      <c r="D1228" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>9909.779699999999</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>-1901039.911375475</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1228" t="inlineStr"/>
+      <c r="J1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr"/>
+      <c r="L1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>55.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>33607.4177</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>-1934647.329075475</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
+      <c r="J1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr"/>
+      <c r="L1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>10263.798</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>-1934647.329075475</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
+      <c r="J1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr"/>
+      <c r="L1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>22204.0103</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>-1912443.318775475</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
+      <c r="J1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr"/>
+      <c r="L1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>29505.5713</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>-1941948.890075475</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
+      <c r="J1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr"/>
+      <c r="L1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2900.7232</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>-1941948.890075475</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
+      <c r="J1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr"/>
+      <c r="L1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>4106.1807</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>-1937842.709375475</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
+      <c r="L1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>3628.55</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>-1941471.259375475</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
+      <c r="L1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>5038.4902</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>-1936432.769175475</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
+      <c r="L1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>3938.9261</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>-1936432.769175475</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr"/>
+      <c r="L1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>3498.8988</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>-1939931.667975475</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
+      <c r="J1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr"/>
+      <c r="L1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>3003.316880907</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>-1936928.351094568</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
+      <c r="L1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2091.452</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>-1936928.351094568</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
+      <c r="L1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2099.3392</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>-1936928.351094568</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr"/>
+      <c r="L1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>3557.9621</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>-1940486.313194568</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr"/>
+      <c r="L1242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>2901.0026</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>-1937585.310594568</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr"/>
+      <c r="L1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>27456.4938</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>-1965041.804394568</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
+      <c r="J1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr"/>
+      <c r="L1244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>3375.6552</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>-1965041.804394568</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
+      <c r="J1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr"/>
+      <c r="L1245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>13385.1222</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>-1951656.682194568</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
+      <c r="J1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr"/>
+      <c r="L1246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>1399.5595</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>-1950257.122694568</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
+      <c r="J1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr"/>
+      <c r="L1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>1399.5595</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>-1951656.682194568</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
+      <c r="J1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr"/>
+      <c r="L1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>3491.5649</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>-1948165.117294568</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
+      <c r="J1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr"/>
+      <c r="L1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>2860.7925</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>-1948165.117294568</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
+      <c r="J1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr"/>
+      <c r="L1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>699.7797</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>-1947465.337594568</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
+      <c r="J1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr"/>
+      <c r="L1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>55.41</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>55.41</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>4198.6785</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>-1943266.659094568</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
+      <c r="J1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr"/>
+      <c r="L1252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>1251</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>699.7797</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>-1942566.879394568</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
+      <c r="J1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr"/>
+      <c r="L1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>804.2683</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>-1941762.611094568</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
+      <c r="J1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr"/>
+      <c r="L1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>5814.492719093</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>-1935948.118375475</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
+      <c r="J1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr"/>
+      <c r="L1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>1254</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>61090.9813</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>-1997039.099675475</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
+      <c r="J1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr"/>
+      <c r="L1256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>3534.1479</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>-1993504.951775475</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
+      <c r="J1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr"/>
+      <c r="L1257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>9810.779699999999</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>-1983694.172075475</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
+      <c r="J1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr"/>
+      <c r="L1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>6331.4038</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>-1977362.768275475</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
+      <c r="J1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr"/>
+      <c r="L1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>1258</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>2797.4583</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>-1980160.226575475</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
+      <c r="J1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr"/>
+      <c r="L1260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>64108.0004</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>-2044268.226975475</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
+      <c r="J1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr"/>
+      <c r="L1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>3512.3726</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>-2040755.854375475</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
+      <c r="J1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr"/>
+      <c r="L1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>1399.5595</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>-2039356.294875475</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
+      <c r="J1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr"/>
+      <c r="L1263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>3498.8988</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>-2039356.294875475</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="K1264" t="inlineStr"/>
+      <c r="L1264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>2129.7037</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>-2041485.998575475</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="K1265" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1218" t="inlineStr"/>
-    </row>
-    <row r="1219">
-      <c r="A1219" s="1" t="n">
-        <v>1217</v>
-      </c>
-      <c r="B1219" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="C1219" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="D1219" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="E1219" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="F1219" t="n">
-        <v>26062.8076</v>
-      </c>
-      <c r="G1219" t="n">
-        <v>-1888573.610875475</v>
-      </c>
-      <c r="H1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="J1219" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="K1219" t="inlineStr">
+      <c r="L1265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>2099.3393</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>-2043585.337875475</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="K1266" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1219" t="inlineStr"/>
-    </row>
-    <row r="1220">
-      <c r="A1220" s="1" t="n">
-        <v>1218</v>
-      </c>
-      <c r="B1220" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="C1220" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="D1220" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="E1220" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="F1220" t="n">
-        <v>699.7797</v>
-      </c>
-      <c r="G1220" t="n">
-        <v>-1887873.831175475</v>
-      </c>
-      <c r="H1220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1220" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="J1220" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="K1220" t="inlineStr"/>
-      <c r="L1220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1220" t="inlineStr"/>
-    </row>
-    <row r="1221">
-      <c r="A1221" s="1" t="n">
-        <v>1219</v>
-      </c>
-      <c r="B1221" t="n">
-        <v>55.86</v>
-      </c>
-      <c r="C1221" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="D1221" t="n">
-        <v>55.86</v>
-      </c>
-      <c r="E1221" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="F1221" t="n">
-        <v>9286.727500000001</v>
-      </c>
-      <c r="G1221" t="n">
-        <v>-1878587.103675475</v>
-      </c>
-      <c r="H1221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1221" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="J1221" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L1221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1221" t="inlineStr"/>
-    </row>
-    <row r="1222">
-      <c r="A1222" s="1" t="n">
-        <v>1220</v>
-      </c>
-      <c r="B1222" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="C1222" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="D1222" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="E1222" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="F1222" t="n">
-        <v>699.7797</v>
-      </c>
-      <c r="G1222" t="n">
-        <v>-1878587.103675475</v>
-      </c>
-      <c r="H1222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1222" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="J1222" t="n">
-        <v>55.58</v>
-      </c>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L1222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1222" t="inlineStr"/>
-    </row>
-    <row r="1223">
-      <c r="A1223" s="1" t="n">
-        <v>1221</v>
-      </c>
-      <c r="B1223" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="C1223" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="D1223" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="E1223" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="F1223" t="n">
-        <v>2099.3393</v>
-      </c>
-      <c r="G1223" t="n">
-        <v>-1880686.442975475</v>
-      </c>
-      <c r="H1223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="J1223" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1223" t="inlineStr"/>
-      <c r="L1223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1223" t="inlineStr"/>
-    </row>
-    <row r="1224">
-      <c r="A1224" s="1" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B1224" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="C1224" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="D1224" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="E1224" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="F1224" t="n">
-        <v>4279.1349</v>
-      </c>
-      <c r="G1224" t="n">
-        <v>-1884965.577875475</v>
-      </c>
-      <c r="H1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1224" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="J1224" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1224" t="inlineStr">
+      <c r="L1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>21324.0254</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>-2064909.363275475</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="K1267" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1224" t="inlineStr"/>
-    </row>
-    <row r="1225">
-      <c r="A1225" s="1" t="n">
-        <v>1223</v>
-      </c>
-      <c r="B1225" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="C1225" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="D1225" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="E1225" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="F1225" t="n">
-        <v>4928.9787</v>
-      </c>
-      <c r="G1225" t="n">
-        <v>-1880036.599175475</v>
-      </c>
-      <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1225" t="inlineStr"/>
-    </row>
-    <row r="1226">
-      <c r="A1226" s="1" t="n">
-        <v>1224</v>
-      </c>
-      <c r="B1226" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="C1226" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="D1226" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="E1226" t="n">
-        <v>55.76</v>
-      </c>
-      <c r="F1226" t="n">
-        <v>5763.0366</v>
-      </c>
-      <c r="G1226" t="n">
-        <v>-1885799.635775475</v>
-      </c>
-      <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1226" t="inlineStr"/>
-    </row>
-    <row r="1227">
-      <c r="A1227" s="1" t="n">
-        <v>1225</v>
-      </c>
-      <c r="B1227" t="n">
-        <v>55.97</v>
-      </c>
-      <c r="C1227" t="n">
-        <v>55.46</v>
-      </c>
-      <c r="D1227" t="n">
-        <v>55.97</v>
-      </c>
-      <c r="E1227" t="n">
-        <v>55.46</v>
-      </c>
-      <c r="F1227" t="n">
-        <v>5330.4959</v>
-      </c>
-      <c r="G1227" t="n">
-        <v>-1891130.131675475</v>
-      </c>
-      <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1227" t="inlineStr"/>
-    </row>
-    <row r="1228">
-      <c r="A1228" s="1" t="n">
-        <v>1226</v>
-      </c>
-      <c r="B1228" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="C1228" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="D1228" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="E1228" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="F1228" t="n">
-        <v>9909.779699999999</v>
-      </c>
-      <c r="G1228" t="n">
-        <v>-1901039.911375475</v>
-      </c>
-      <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" s="1" t="n">
-        <v>1227</v>
-      </c>
-      <c r="B1229" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="C1229" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D1229" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="E1229" t="n">
-        <v>55.11</v>
-      </c>
-      <c r="F1229" t="n">
-        <v>33607.4177</v>
-      </c>
-      <c r="G1229" t="n">
-        <v>-1934647.329075475</v>
-      </c>
-      <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" s="1" t="n">
-        <v>1228</v>
-      </c>
-      <c r="B1230" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="C1230" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D1230" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1230" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="F1230" t="n">
-        <v>10263.798</v>
-      </c>
-      <c r="G1230" t="n">
-        <v>-1934647.329075475</v>
-      </c>
-      <c r="H1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="J1230" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" s="1" t="n">
-        <v>1229</v>
-      </c>
-      <c r="B1231" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C1231" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="D1231" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1231" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="F1231" t="n">
-        <v>22204.0103</v>
-      </c>
-      <c r="G1231" t="n">
-        <v>-1912443.318775475</v>
-      </c>
-      <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="J1231" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" s="1" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B1232" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="C1232" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D1232" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="E1232" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="F1232" t="n">
-        <v>29505.5713</v>
-      </c>
-      <c r="G1232" t="n">
-        <v>-1941948.890075475</v>
-      </c>
-      <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" s="1" t="n">
-        <v>1231</v>
-      </c>
-      <c r="B1233" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="C1233" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D1233" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1233" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="F1233" t="n">
-        <v>2900.7232</v>
-      </c>
-      <c r="G1233" t="n">
-        <v>-1941948.890075475</v>
-      </c>
-      <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="J1233" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" s="1" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B1234" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="C1234" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="D1234" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1234" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="F1234" t="n">
-        <v>4106.1807</v>
-      </c>
-      <c r="G1234" t="n">
-        <v>-1937842.709375475</v>
-      </c>
-      <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="J1234" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" s="1" t="n">
-        <v>1233</v>
-      </c>
-      <c r="B1235" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="C1235" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D1235" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1235" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="F1235" t="n">
-        <v>3628.55</v>
-      </c>
-      <c r="G1235" t="n">
-        <v>-1941471.259375475</v>
-      </c>
-      <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="J1235" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" s="1" t="n">
-        <v>1234</v>
-      </c>
-      <c r="B1236" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="C1236" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="D1236" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1236" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="F1236" t="n">
-        <v>5038.4902</v>
-      </c>
-      <c r="G1236" t="n">
-        <v>-1936432.769175475</v>
-      </c>
-      <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="J1236" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" s="1" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B1237" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="C1237" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="D1237" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E1237" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="F1237" t="n">
-        <v>3938.9261</v>
-      </c>
-      <c r="G1237" t="n">
-        <v>-1936432.769175475</v>
-      </c>
-      <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="J1237" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" s="1" t="n">
-        <v>1236</v>
-      </c>
-      <c r="B1238" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="C1238" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="D1238" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="E1238" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="F1238" t="n">
-        <v>3498.8988</v>
-      </c>
-      <c r="G1238" t="n">
-        <v>-1939931.667975475</v>
-      </c>
-      <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="J1238" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1238" t="inlineStr"/>
-    </row>
-    <row r="1239">
-      <c r="A1239" s="1" t="n">
-        <v>1237</v>
-      </c>
-      <c r="B1239" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="C1239" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="D1239" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1239" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="F1239" t="n">
-        <v>3003.316880907</v>
-      </c>
-      <c r="G1239" t="n">
-        <v>-1936928.351094568</v>
-      </c>
-      <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="J1239" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1239" t="inlineStr"/>
-    </row>
-    <row r="1240">
-      <c r="A1240" s="1" t="n">
-        <v>1238</v>
-      </c>
-      <c r="B1240" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="C1240" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="D1240" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="E1240" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="F1240" t="n">
-        <v>2091.452</v>
-      </c>
-      <c r="G1240" t="n">
-        <v>-1936928.351094568</v>
-      </c>
-      <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="J1240" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1240" t="inlineStr"/>
-    </row>
-    <row r="1241">
-      <c r="A1241" s="1" t="n">
-        <v>1239</v>
-      </c>
-      <c r="B1241" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="C1241" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="D1241" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="E1241" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="F1241" t="n">
-        <v>2099.3392</v>
-      </c>
-      <c r="G1241" t="n">
-        <v>-1936928.351094568</v>
-      </c>
-      <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="J1241" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" s="1" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B1242" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="C1242" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="D1242" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="E1242" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="F1242" t="n">
-        <v>3557.9621</v>
-      </c>
-      <c r="G1242" t="n">
-        <v>-1940486.313194568</v>
-      </c>
-      <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="J1242" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1242" t="inlineStr"/>
-    </row>
-    <row r="1243">
-      <c r="A1243" s="1" t="n">
-        <v>1241</v>
-      </c>
-      <c r="B1243" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="C1243" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="D1243" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E1243" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="F1243" t="n">
-        <v>2901.0026</v>
-      </c>
-      <c r="G1243" t="n">
-        <v>-1937585.310594568</v>
-      </c>
-      <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="J1243" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1243" t="inlineStr"/>
-    </row>
-    <row r="1244">
-      <c r="A1244" s="1" t="n">
-        <v>1242</v>
-      </c>
-      <c r="B1244" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="C1244" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D1244" t="n">
-        <v>55.29</v>
-      </c>
-      <c r="E1244" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="F1244" t="n">
-        <v>27456.4938</v>
-      </c>
-      <c r="G1244" t="n">
-        <v>-1965041.804394568</v>
-      </c>
-      <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="J1244" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1244" t="inlineStr"/>
-    </row>
-    <row r="1245">
-      <c r="A1245" s="1" t="n">
-        <v>1243</v>
-      </c>
-      <c r="B1245" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="C1245" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D1245" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="E1245" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="F1245" t="n">
-        <v>3375.6552</v>
-      </c>
-      <c r="G1245" t="n">
-        <v>-1965041.804394568</v>
-      </c>
-      <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="J1245" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1245" t="inlineStr"/>
-    </row>
-    <row r="1246">
-      <c r="A1246" s="1" t="n">
-        <v>1244</v>
-      </c>
-      <c r="B1246" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="C1246" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="D1246" t="n">
-        <v>55.51</v>
-      </c>
-      <c r="E1246" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="F1246" t="n">
-        <v>13385.1222</v>
-      </c>
-      <c r="G1246" t="n">
-        <v>-1951656.682194568</v>
-      </c>
-      <c r="H1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="J1246" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1246" t="inlineStr"/>
-    </row>
-    <row r="1247">
-      <c r="A1247" s="1" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B1247" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="C1247" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="D1247" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="E1247" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="F1247" t="n">
-        <v>1399.5595</v>
-      </c>
-      <c r="G1247" t="n">
-        <v>-1950257.122694568</v>
-      </c>
-      <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="J1247" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1247" t="inlineStr"/>
-    </row>
-    <row r="1248">
-      <c r="A1248" s="1" t="n">
-        <v>1246</v>
-      </c>
-      <c r="B1248" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="C1248" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="D1248" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="E1248" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="F1248" t="n">
-        <v>1399.5595</v>
-      </c>
-      <c r="G1248" t="n">
-        <v>-1951656.682194568</v>
-      </c>
-      <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="J1248" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1248" t="inlineStr"/>
-    </row>
-    <row r="1249">
-      <c r="A1249" s="1" t="n">
-        <v>1247</v>
-      </c>
-      <c r="B1249" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="C1249" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="D1249" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="E1249" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="F1249" t="n">
-        <v>3491.5649</v>
-      </c>
-      <c r="G1249" t="n">
-        <v>-1948165.117294568</v>
-      </c>
-      <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="J1249" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1249" t="inlineStr"/>
-    </row>
-    <row r="1250">
-      <c r="A1250" s="1" t="n">
-        <v>1248</v>
-      </c>
-      <c r="B1250" t="n">
-        <v>55.39</v>
-      </c>
-      <c r="C1250" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="D1250" t="n">
-        <v>55.39</v>
-      </c>
-      <c r="E1250" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="F1250" t="n">
-        <v>2860.7925</v>
-      </c>
-      <c r="G1250" t="n">
-        <v>-1948165.117294568</v>
-      </c>
-      <c r="H1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="J1250" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1250" t="inlineStr"/>
-    </row>
-    <row r="1251">
-      <c r="A1251" s="1" t="n">
-        <v>1249</v>
-      </c>
-      <c r="B1251" t="n">
-        <v>55.39</v>
-      </c>
-      <c r="C1251" t="n">
-        <v>55.39</v>
-      </c>
-      <c r="D1251" t="n">
-        <v>55.39</v>
-      </c>
-      <c r="E1251" t="n">
-        <v>55.39</v>
-      </c>
-      <c r="F1251" t="n">
-        <v>699.7797</v>
-      </c>
-      <c r="G1251" t="n">
-        <v>-1947465.337594568</v>
-      </c>
-      <c r="H1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="J1251" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1251" t="inlineStr"/>
-    </row>
-    <row r="1252">
-      <c r="A1252" s="1" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B1252" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="C1252" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="D1252" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="E1252" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="F1252" t="n">
-        <v>4198.6785</v>
-      </c>
-      <c r="G1252" t="n">
-        <v>-1943266.659094568</v>
-      </c>
-      <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>55.39</v>
-      </c>
-      <c r="J1252" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1252" t="inlineStr"/>
-    </row>
-    <row r="1253">
-      <c r="A1253" s="1" t="n">
-        <v>1251</v>
-      </c>
-      <c r="B1253" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="C1253" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="D1253" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="E1253" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="F1253" t="n">
-        <v>699.7797</v>
-      </c>
-      <c r="G1253" t="n">
-        <v>-1942566.879394568</v>
-      </c>
-      <c r="H1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="J1253" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1253" t="inlineStr"/>
-    </row>
-    <row r="1254">
-      <c r="A1254" s="1" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B1254" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="C1254" t="n">
-        <v>55.51</v>
-      </c>
-      <c r="D1254" t="n">
-        <v>55.51</v>
-      </c>
-      <c r="E1254" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="F1254" t="n">
-        <v>804.2683</v>
-      </c>
-      <c r="G1254" t="n">
-        <v>-1941762.611094568</v>
-      </c>
-      <c r="H1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="J1254" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" s="1" t="n">
-        <v>1253</v>
-      </c>
-      <c r="B1255" t="n">
-        <v>55.46</v>
-      </c>
-      <c r="C1255" t="n">
-        <v>55.61</v>
-      </c>
-      <c r="D1255" t="n">
-        <v>55.61</v>
-      </c>
-      <c r="E1255" t="n">
-        <v>55.46</v>
-      </c>
-      <c r="F1255" t="n">
-        <v>5814.492719093</v>
-      </c>
-      <c r="G1255" t="n">
-        <v>-1935948.118375475</v>
-      </c>
-      <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>55.51</v>
-      </c>
-      <c r="J1255" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1255" t="inlineStr"/>
-    </row>
-    <row r="1256">
-      <c r="A1256" s="1" t="n">
-        <v>1254</v>
-      </c>
-      <c r="B1256" t="n">
-        <v>55.61</v>
-      </c>
-      <c r="C1256" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="D1256" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="E1256" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="F1256" t="n">
-        <v>61090.9813</v>
-      </c>
-      <c r="G1256" t="n">
-        <v>-1997039.099675475</v>
-      </c>
-      <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1256" t="inlineStr"/>
-    </row>
-    <row r="1257">
-      <c r="A1257" s="1" t="n">
-        <v>1255</v>
-      </c>
-      <c r="B1257" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="C1257" t="n">
-        <v>55.64</v>
-      </c>
-      <c r="D1257" t="n">
-        <v>55.64</v>
-      </c>
-      <c r="E1257" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="F1257" t="n">
-        <v>3534.1479</v>
-      </c>
-      <c r="G1257" t="n">
-        <v>-1993504.951775475</v>
-      </c>
-      <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1257" t="inlineStr"/>
-    </row>
-    <row r="1258">
-      <c r="A1258" s="1" t="n">
-        <v>1256</v>
-      </c>
-      <c r="B1258" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="C1258" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="D1258" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="E1258" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="F1258" t="n">
-        <v>9810.779699999999</v>
-      </c>
-      <c r="G1258" t="n">
-        <v>-1983694.172075475</v>
-      </c>
-      <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1258" t="inlineStr"/>
-    </row>
-    <row r="1259">
-      <c r="A1259" s="1" t="n">
-        <v>1257</v>
-      </c>
-      <c r="B1259" t="n">
-        <v>55.68</v>
-      </c>
-      <c r="C1259" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="D1259" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E1259" t="n">
-        <v>55.68</v>
-      </c>
-      <c r="F1259" t="n">
-        <v>6331.4038</v>
-      </c>
-      <c r="G1259" t="n">
-        <v>-1977362.768275475</v>
-      </c>
-      <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1259" t="inlineStr"/>
-    </row>
-    <row r="1260">
-      <c r="A1260" s="1" t="n">
-        <v>1258</v>
-      </c>
-      <c r="B1260" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="C1260" t="n">
-        <v>55.68</v>
-      </c>
-      <c r="D1260" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="E1260" t="n">
-        <v>55.68</v>
-      </c>
-      <c r="F1260" t="n">
-        <v>2797.4583</v>
-      </c>
-      <c r="G1260" t="n">
-        <v>-1980160.226575475</v>
-      </c>
-      <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1260" t="inlineStr"/>
-    </row>
-    <row r="1261">
-      <c r="A1261" s="1" t="n">
-        <v>1259</v>
-      </c>
-      <c r="B1261" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="C1261" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="D1261" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="E1261" t="n">
-        <v>55</v>
-      </c>
-      <c r="F1261" t="n">
-        <v>64108.0004</v>
-      </c>
-      <c r="G1261" t="n">
-        <v>-2044268.226975475</v>
-      </c>
-      <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1261" t="inlineStr"/>
-    </row>
-    <row r="1262">
-      <c r="A1262" s="1" t="n">
-        <v>1260</v>
-      </c>
-      <c r="B1262" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="C1262" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D1262" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="E1262" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="F1262" t="n">
-        <v>3512.3726</v>
-      </c>
-      <c r="G1262" t="n">
-        <v>-2040755.854375475</v>
-      </c>
-      <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1262" t="inlineStr"/>
-    </row>
-    <row r="1263">
-      <c r="A1263" s="1" t="n">
-        <v>1261</v>
-      </c>
-      <c r="B1263" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="C1263" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="D1263" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="E1263" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="F1263" t="n">
-        <v>1399.5595</v>
-      </c>
-      <c r="G1263" t="n">
-        <v>-2039356.294875475</v>
-      </c>
-      <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1263" t="inlineStr"/>
-    </row>
-    <row r="1264">
-      <c r="A1264" s="1" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B1264" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="C1264" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="D1264" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="E1264" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="F1264" t="n">
-        <v>3498.8988</v>
-      </c>
-      <c r="G1264" t="n">
-        <v>-2039356.294875475</v>
-      </c>
-      <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1264" t="inlineStr"/>
-    </row>
-    <row r="1265">
-      <c r="A1265" s="1" t="n">
-        <v>1263</v>
-      </c>
-      <c r="B1265" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="C1265" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="D1265" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="E1265" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="F1265" t="n">
-        <v>2129.7037</v>
-      </c>
-      <c r="G1265" t="n">
-        <v>-2041485.998575475</v>
-      </c>
-      <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1265" t="inlineStr"/>
-    </row>
-    <row r="1266">
-      <c r="A1266" s="1" t="n">
-        <v>1264</v>
-      </c>
-      <c r="B1266" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="C1266" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="D1266" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="E1266" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="F1266" t="n">
-        <v>2099.3393</v>
-      </c>
-      <c r="G1266" t="n">
-        <v>-2043585.337875475</v>
-      </c>
-      <c r="H1266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1266" t="n">
-        <v>55.27</v>
-      </c>
-      <c r="J1266" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1266" t="inlineStr"/>
-    </row>
-    <row r="1267">
-      <c r="A1267" s="1" t="n">
-        <v>1265</v>
-      </c>
-      <c r="B1267" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="C1267" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D1267" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="E1267" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="F1267" t="n">
-        <v>21324.0254</v>
-      </c>
-      <c r="G1267" t="n">
-        <v>-2064909.363275475</v>
-      </c>
-      <c r="H1267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1267" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="J1267" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42599,7 +42263,7 @@
         <v>55.25</v>
       </c>
       <c r="J1268" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -42640,7 +42304,7 @@
         <v>55.38</v>
       </c>
       <c r="J1269" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -42681,7 +42345,7 @@
         <v>55.38</v>
       </c>
       <c r="J1270" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -42722,7 +42386,7 @@
         <v>55.38</v>
       </c>
       <c r="J1271" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -42763,7 +42427,7 @@
         <v>55.25</v>
       </c>
       <c r="J1272" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -42804,7 +42468,7 @@
         <v>55.25</v>
       </c>
       <c r="J1273" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -42845,7 +42509,7 @@
         <v>55.25</v>
       </c>
       <c r="J1274" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -42886,7 +42550,7 @@
         <v>55.25</v>
       </c>
       <c r="J1275" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -42927,7 +42591,7 @@
         <v>55.39</v>
       </c>
       <c r="J1276" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -42968,7 +42632,7 @@
         <v>55.41</v>
       </c>
       <c r="J1277" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -43009,7 +42673,7 @@
         <v>55.54</v>
       </c>
       <c r="J1278" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43050,7 +42714,7 @@
         <v>55.61</v>
       </c>
       <c r="J1279" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43089,7 +42753,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43128,7 +42792,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43167,7 +42831,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43206,7 +42870,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43245,7 +42909,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43284,7 +42948,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43323,7 +42987,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43362,7 +43026,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43401,7 +43065,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43440,7 +43104,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43479,7 +43143,7 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43518,7 +43182,7 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43557,7 +43221,7 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43596,7 +43260,7 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43635,7 +43299,7 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43670,21 +43334,23 @@
         <v>-1287496.453964635</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="n">
-        <v>55.79</v>
+        <v>55.28</v>
       </c>
       <c r="K1295" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L1295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1295" t="inlineStr"/>
+        <v>1.099377713458755</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>1.159053685168335</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="1" t="n">
@@ -43709,17 +43375,11 @@
         <v>-1251296.085764635</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr"/>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -43748,17 +43408,11 @@
         <v>-1085110.493405746</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr"/>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -43787,17 +43441,11 @@
         <v>-1155004.214105746</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr"/>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -43826,17 +43474,11 @@
         <v>-1064097.482641059</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr"/>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -43865,17 +43507,11 @@
         <v>-1085330.976841059</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr"/>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -43904,17 +43540,11 @@
         <v>-1128876.172641059</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr"/>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -43943,17 +43573,11 @@
         <v>-1187468.693041059</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr"/>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -43982,17 +43606,11 @@
         <v>-1233531.830141059</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr"/>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -44021,17 +43639,11 @@
         <v>-1208532.347241059</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr"/>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -44060,17 +43672,11 @@
         <v>-1298843.398041059</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr"/>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -44099,17 +43705,11 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr"/>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -44138,17 +43738,11 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr"/>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -44180,14 +43774,8 @@
         <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr"/>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -44219,14 +43807,8 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr"/>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -44258,14 +43840,8 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr"/>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -44297,14 +43873,8 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr"/>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -44336,14 +43906,8 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr"/>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -44375,14 +43939,8 @@
         <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr"/>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -44414,14 +43972,8 @@
         <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr"/>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -44450,17 +44002,11 @@
         <v>-1383744.757041059</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr"/>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -44489,17 +44035,11 @@
         <v>-1419717.338941059</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr"/>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -44528,17 +44068,11 @@
         <v>-1439332.866241059</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr"/>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -44567,17 +44101,11 @@
         <v>-1473846.069741059</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr"/>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -44606,17 +44134,11 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr"/>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -44645,17 +44167,11 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr"/>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -44684,19 +44200,11 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1321" t="n">
-        <v>57.06</v>
-      </c>
-      <c r="J1321" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1321" t="inlineStr"/>
+      <c r="J1321" t="inlineStr"/>
+      <c r="K1321" t="inlineStr"/>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -44725,19 +44233,11 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1322" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="J1322" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1322" t="inlineStr"/>
+      <c r="J1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr"/>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -44766,19 +44266,11 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1323" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="J1323" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1323" t="inlineStr"/>
+      <c r="J1323" t="inlineStr"/>
+      <c r="K1323" t="inlineStr"/>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -44807,19 +44299,11 @@
         <v>-1502964.670441059</v>
       </c>
       <c r="H1324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1324" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="J1324" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1324" t="inlineStr"/>
+      <c r="J1324" t="inlineStr"/>
+      <c r="K1324" t="inlineStr"/>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -44848,19 +44332,11 @@
         <v>-1498672.399441059</v>
       </c>
       <c r="H1325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="J1325" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
+      <c r="J1325" t="inlineStr"/>
+      <c r="K1325" t="inlineStr"/>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -44892,14 +44368,8 @@
         <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1326" t="inlineStr"/>
+      <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -44931,14 +44401,8 @@
         <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1327" t="inlineStr"/>
+      <c r="K1327" t="inlineStr"/>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -44970,14 +44434,8 @@
         <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1328" t="inlineStr"/>
+      <c r="K1328" t="inlineStr"/>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -45009,14 +44467,8 @@
         <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1329" t="inlineStr"/>
+      <c r="K1329" t="inlineStr"/>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -45048,14 +44500,8 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1330" t="inlineStr"/>
+      <c r="K1330" t="inlineStr"/>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -45087,14 +44533,8 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1331" t="inlineStr"/>
+      <c r="K1331" t="inlineStr"/>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -45126,14 +44566,8 @@
         <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1332" t="inlineStr"/>
+      <c r="K1332" t="inlineStr"/>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -45165,14 +44599,8 @@
         <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1333" t="inlineStr"/>
+      <c r="K1333" t="inlineStr"/>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -45204,14 +44632,8 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1334" t="inlineStr"/>
+      <c r="K1334" t="inlineStr"/>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -45243,14 +44665,8 @@
         <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1335" t="inlineStr"/>
+      <c r="K1335" t="inlineStr"/>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -45282,14 +44698,8 @@
         <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1336" t="inlineStr"/>
+      <c r="K1336" t="inlineStr"/>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -45321,14 +44731,8 @@
         <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1337" t="inlineStr"/>
+      <c r="K1337" t="inlineStr"/>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
@@ -45360,14 +44764,8 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1338" t="inlineStr"/>
+      <c r="K1338" t="inlineStr"/>
       <c r="L1338" t="n">
         <v>1</v>
       </c>
@@ -45399,14 +44797,8 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1339" t="inlineStr"/>
+      <c r="K1339" t="inlineStr"/>
       <c r="L1339" t="n">
         <v>1</v>
       </c>
@@ -45438,14 +44830,8 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1340" t="inlineStr"/>
+      <c r="K1340" t="inlineStr"/>
       <c r="L1340" t="n">
         <v>1</v>
       </c>
@@ -45477,14 +44863,8 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1341" t="inlineStr"/>
+      <c r="K1341" t="inlineStr"/>
       <c r="L1341" t="n">
         <v>1</v>
       </c>
@@ -45516,14 +44896,8 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1342" t="inlineStr"/>
+      <c r="K1342" t="inlineStr"/>
       <c r="L1342" t="n">
         <v>1</v>
       </c>
@@ -45555,14 +44929,8 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr"/>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
@@ -45594,14 +44962,8 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1344" t="inlineStr"/>
+      <c r="K1344" t="inlineStr"/>
       <c r="L1344" t="n">
         <v>1</v>
       </c>
@@ -45633,14 +44995,8 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1345" t="inlineStr"/>
+      <c r="K1345" t="inlineStr"/>
       <c r="L1345" t="n">
         <v>1</v>
       </c>
@@ -45672,14 +45028,8 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1346" t="inlineStr"/>
+      <c r="K1346" t="inlineStr"/>
       <c r="L1346" t="n">
         <v>1</v>
       </c>
@@ -45711,14 +45061,8 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1347" t="inlineStr"/>
+      <c r="K1347" t="inlineStr"/>
       <c r="L1347" t="n">
         <v>1</v>
       </c>
@@ -45750,14 +45094,8 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1348" t="inlineStr"/>
+      <c r="K1348" t="inlineStr"/>
       <c r="L1348" t="n">
         <v>1</v>
       </c>
@@ -45789,14 +45127,8 @@
         <v>0</v>
       </c>
       <c r="I1349" t="inlineStr"/>
-      <c r="J1349" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1349" t="inlineStr"/>
+      <c r="K1349" t="inlineStr"/>
       <c r="L1349" t="n">
         <v>1</v>
       </c>
@@ -45828,14 +45160,8 @@
         <v>0</v>
       </c>
       <c r="I1350" t="inlineStr"/>
-      <c r="J1350" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1350" t="inlineStr"/>
+      <c r="K1350" t="inlineStr"/>
       <c r="L1350" t="n">
         <v>1</v>
       </c>
@@ -45867,14 +45193,8 @@
         <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
-      <c r="J1351" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1351" t="inlineStr"/>
+      <c r="K1351" t="inlineStr"/>
       <c r="L1351" t="n">
         <v>1</v>
       </c>
@@ -45906,14 +45226,8 @@
         <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
-      <c r="J1352" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1352" t="inlineStr"/>
+      <c r="K1352" t="inlineStr"/>
       <c r="L1352" t="n">
         <v>1</v>
       </c>
@@ -45945,14 +45259,8 @@
         <v>0</v>
       </c>
       <c r="I1353" t="inlineStr"/>
-      <c r="J1353" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1353" t="inlineStr"/>
+      <c r="K1353" t="inlineStr"/>
       <c r="L1353" t="n">
         <v>1</v>
       </c>
@@ -45984,14 +45292,8 @@
         <v>0</v>
       </c>
       <c r="I1354" t="inlineStr"/>
-      <c r="J1354" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1354" t="inlineStr"/>
+      <c r="K1354" t="inlineStr"/>
       <c r="L1354" t="n">
         <v>1</v>
       </c>
@@ -46023,20 +45325,14 @@
         <v>0</v>
       </c>
       <c r="I1355" t="inlineStr"/>
-      <c r="J1355" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="K1355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1355" t="inlineStr"/>
+      <c r="K1355" t="inlineStr"/>
       <c r="L1355" t="n">
         <v>1</v>
       </c>
       <c r="M1355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest IPX.xlsx
+++ b/BackTest/2020-01-20 BackTest IPX.xlsx
@@ -19030,7 +19030,7 @@
         <v>-1190820.266100375</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-908668.1608003748</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-910104.0839003748</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-901451.9626003748</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-869227.9613003748</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-903089.3600003748</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-901689.8005003749</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-902435.9438003749</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-594698.4998003748</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-519872.9450003749</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-543394.9023003749</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-569738.499800375</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-594155.023900375</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-603123.2544003751</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-617117.7470003751</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-629636.1905003751</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-640698.8600003751</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-663758.885800375</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-657300.647400375</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-684218.051500375</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-707785.2570003751</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-704977.1380003751</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-708846.5902003752</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-758697.5321003752</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-785480.7697003752</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -41173,10 +41173,14 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>55.22</v>
+      </c>
       <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
@@ -41206,11 +41210,19 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41239,11 +41251,19 @@
         <v>-1939931.667975475</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41272,10 +41292,14 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>55.26</v>
+      </c>
       <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
@@ -41305,11 +41329,19 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41338,11 +41370,19 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41371,11 +41411,19 @@
         <v>-1940486.313194568</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41404,11 +41452,19 @@
         <v>-1937585.310594568</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41437,11 +41493,19 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41470,11 +41534,19 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41503,11 +41575,19 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41536,11 +41616,19 @@
         <v>-1950257.122694568</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41569,11 +41657,19 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41602,11 +41698,19 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41635,11 +41739,19 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -41668,11 +41780,19 @@
         <v>-1947465.337594568</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -41701,11 +41821,19 @@
         <v>-1943266.659094568</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -41734,11 +41862,19 @@
         <v>-1942566.879394568</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>55.41</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -41767,11 +41903,19 @@
         <v>-1941762.611094568</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -41800,11 +41944,19 @@
         <v>-1935948.118375475</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -41833,11 +41985,19 @@
         <v>-1997039.099675475</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -41866,11 +42026,19 @@
         <v>-1993504.951775475</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>55.48</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -41899,11 +42067,19 @@
         <v>-1983694.172075475</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -41935,8 +42111,14 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -41965,11 +42147,19 @@
         <v>-1980160.226575475</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -41998,11 +42188,19 @@
         <v>-2044268.226975475</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42034,8 +42232,14 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42067,8 +42271,14 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42097,15 +42307,17 @@
         <v>-2039356.294875475</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>55.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="K1264" t="inlineStr"/>
+        <v>55.26</v>
+      </c>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42134,17 +42346,15 @@
         <v>-2041485.998575475</v>
       </c>
       <c r="H1265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>55.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1265" t="n">
@@ -42181,11 +42391,11 @@
         <v>55.27</v>
       </c>
       <c r="J1266" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1266" t="n">
@@ -42222,11 +42432,11 @@
         <v>55.26</v>
       </c>
       <c r="J1267" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1267" t="n">
@@ -42263,7 +42473,7 @@
         <v>55.25</v>
       </c>
       <c r="J1268" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -42304,7 +42514,7 @@
         <v>55.38</v>
       </c>
       <c r="J1269" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -42345,7 +42555,7 @@
         <v>55.38</v>
       </c>
       <c r="J1270" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -42386,7 +42596,7 @@
         <v>55.38</v>
       </c>
       <c r="J1271" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -42427,7 +42637,7 @@
         <v>55.25</v>
       </c>
       <c r="J1272" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -42468,7 +42678,7 @@
         <v>55.25</v>
       </c>
       <c r="J1273" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -42509,7 +42719,7 @@
         <v>55.25</v>
       </c>
       <c r="J1274" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -42550,7 +42760,7 @@
         <v>55.25</v>
       </c>
       <c r="J1275" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -42591,7 +42801,7 @@
         <v>55.39</v>
       </c>
       <c r="J1276" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -42632,7 +42842,7 @@
         <v>55.41</v>
       </c>
       <c r="J1277" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -42673,7 +42883,7 @@
         <v>55.54</v>
       </c>
       <c r="J1278" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -42714,7 +42924,7 @@
         <v>55.61</v>
       </c>
       <c r="J1279" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -42749,11 +42959,13 @@
         <v>-1884873.828253307</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>56.25</v>
+      </c>
       <c r="J1280" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -42792,7 +43004,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -42831,7 +43043,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -42870,7 +43082,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -42909,7 +43121,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -42948,7 +43160,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -42987,7 +43199,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43026,7 +43238,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43065,7 +43277,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43104,7 +43316,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
@@ -43143,7 +43355,7 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1290" t="inlineStr">
         <is>
@@ -43182,7 +43394,7 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43221,7 +43433,7 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43260,7 +43472,7 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43299,7 +43511,7 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43334,23 +43546,21 @@
         <v>-1287496.453964635</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="n">
-        <v>55.28</v>
+        <v>55.26</v>
       </c>
       <c r="K1295" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1295" t="n">
-        <v>1.099377713458755</v>
-      </c>
-      <c r="M1295" t="n">
-        <v>1.159053685168335</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M1295" t="inlineStr"/>
     </row>
     <row r="1296">
       <c r="A1296" s="1" t="n">
@@ -43375,11 +43585,17 @@
         <v>-1251296.085764635</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -43408,11 +43624,17 @@
         <v>-1085110.493405746</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -43441,11 +43663,17 @@
         <v>-1155004.214105746</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -43474,11 +43702,17 @@
         <v>-1064097.482641059</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -43507,11 +43741,17 @@
         <v>-1085330.976841059</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr"/>
+      <c r="J1300" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -43540,11 +43780,17 @@
         <v>-1128876.172641059</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -43573,11 +43819,17 @@
         <v>-1187468.693041059</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -43606,11 +43858,17 @@
         <v>-1233531.830141059</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -43639,11 +43897,17 @@
         <v>-1208532.347241059</v>
       </c>
       <c r="H1304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr"/>
+      <c r="J1304" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -43672,11 +43936,17 @@
         <v>-1298843.398041059</v>
       </c>
       <c r="H1305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr"/>
+      <c r="J1305" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -43705,11 +43975,17 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr"/>
+      <c r="J1306" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -43738,11 +44014,17 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr"/>
+      <c r="J1307" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -43774,8 +44056,14 @@
         <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
-      <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr"/>
+      <c r="J1308" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -43807,8 +44095,14 @@
         <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr"/>
+      <c r="J1309" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -43840,8 +44134,14 @@
         <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr"/>
+      <c r="J1310" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -43873,8 +44173,14 @@
         <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
+      <c r="J1311" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -43906,8 +44212,14 @@
         <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr"/>
+      <c r="J1312" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -43939,8 +44251,14 @@
         <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr"/>
+      <c r="J1313" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -43972,8 +44290,14 @@
         <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr"/>
+      <c r="J1314" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -44002,11 +44326,17 @@
         <v>-1383744.757041059</v>
       </c>
       <c r="H1315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr"/>
+      <c r="J1315" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -44035,11 +44365,17 @@
         <v>-1419717.338941059</v>
       </c>
       <c r="H1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr"/>
+      <c r="J1316" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -44068,11 +44404,17 @@
         <v>-1439332.866241059</v>
       </c>
       <c r="H1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr"/>
+      <c r="J1317" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -44101,11 +44443,17 @@
         <v>-1473846.069741059</v>
       </c>
       <c r="H1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr"/>
+      <c r="J1318" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -44134,11 +44482,17 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr"/>
+      <c r="J1319" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -44167,11 +44521,17 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr"/>
+      <c r="J1320" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -44200,11 +44560,17 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="inlineStr"/>
-      <c r="K1321" t="inlineStr"/>
+      <c r="J1321" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -44236,8 +44602,14 @@
         <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="inlineStr"/>
-      <c r="K1322" t="inlineStr"/>
+      <c r="J1322" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -44266,11 +44638,17 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="inlineStr"/>
-      <c r="K1323" t="inlineStr"/>
+      <c r="J1323" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -44302,8 +44680,14 @@
         <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="inlineStr"/>
-      <c r="K1324" t="inlineStr"/>
+      <c r="J1324" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -44335,8 +44719,14 @@
         <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr"/>
+      <c r="J1325" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -44368,8 +44758,14 @@
         <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="inlineStr"/>
-      <c r="K1326" t="inlineStr"/>
+      <c r="J1326" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -44401,8 +44797,14 @@
         <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="inlineStr"/>
-      <c r="K1327" t="inlineStr"/>
+      <c r="J1327" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -44434,8 +44836,14 @@
         <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="inlineStr"/>
-      <c r="K1328" t="inlineStr"/>
+      <c r="J1328" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -44467,8 +44875,14 @@
         <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="inlineStr"/>
-      <c r="K1329" t="inlineStr"/>
+      <c r="J1329" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -44500,8 +44914,14 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="inlineStr"/>
-      <c r="K1330" t="inlineStr"/>
+      <c r="J1330" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -44533,8 +44953,14 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="inlineStr"/>
-      <c r="K1331" t="inlineStr"/>
+      <c r="J1331" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -44566,8 +44992,14 @@
         <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="inlineStr"/>
-      <c r="K1332" t="inlineStr"/>
+      <c r="J1332" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -44599,8 +45031,14 @@
         <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr"/>
+      <c r="J1333" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -44632,8 +45070,14 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="inlineStr"/>
-      <c r="K1334" t="inlineStr"/>
+      <c r="J1334" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -44665,8 +45109,14 @@
         <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="inlineStr"/>
-      <c r="K1335" t="inlineStr"/>
+      <c r="J1335" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -44698,8 +45148,14 @@
         <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="inlineStr"/>
-      <c r="K1336" t="inlineStr"/>
+      <c r="J1336" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -44731,8 +45187,14 @@
         <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="inlineStr"/>
-      <c r="K1337" t="inlineStr"/>
+      <c r="J1337" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
@@ -44764,8 +45226,14 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="inlineStr"/>
-      <c r="K1338" t="inlineStr"/>
+      <c r="J1338" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1338" t="n">
         <v>1</v>
       </c>
@@ -44797,8 +45265,14 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="inlineStr"/>
-      <c r="K1339" t="inlineStr"/>
+      <c r="J1339" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1339" t="n">
         <v>1</v>
       </c>
@@ -44830,8 +45304,14 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="inlineStr"/>
-      <c r="K1340" t="inlineStr"/>
+      <c r="J1340" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1340" t="n">
         <v>1</v>
       </c>
@@ -44863,8 +45343,14 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="inlineStr"/>
-      <c r="K1341" t="inlineStr"/>
+      <c r="J1341" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1341" t="n">
         <v>1</v>
       </c>
@@ -44896,8 +45382,14 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="inlineStr"/>
-      <c r="K1342" t="inlineStr"/>
+      <c r="J1342" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1342" t="n">
         <v>1</v>
       </c>
@@ -44929,8 +45421,14 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="inlineStr"/>
-      <c r="K1343" t="inlineStr"/>
+      <c r="J1343" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
@@ -44962,8 +45460,14 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="inlineStr"/>
-      <c r="K1344" t="inlineStr"/>
+      <c r="J1344" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1344" t="n">
         <v>1</v>
       </c>
@@ -44995,8 +45499,14 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="inlineStr"/>
-      <c r="K1345" t="inlineStr"/>
+      <c r="J1345" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1345" t="n">
         <v>1</v>
       </c>
@@ -45028,8 +45538,14 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="inlineStr"/>
-      <c r="K1346" t="inlineStr"/>
+      <c r="J1346" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1346" t="n">
         <v>1</v>
       </c>
@@ -45061,8 +45577,14 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="inlineStr"/>
-      <c r="K1347" t="inlineStr"/>
+      <c r="J1347" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1347" t="n">
         <v>1</v>
       </c>
@@ -45094,8 +45616,14 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="inlineStr"/>
-      <c r="K1348" t="inlineStr"/>
+      <c r="J1348" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1348" t="n">
         <v>1</v>
       </c>
@@ -45127,8 +45655,14 @@
         <v>0</v>
       </c>
       <c r="I1349" t="inlineStr"/>
-      <c r="J1349" t="inlineStr"/>
-      <c r="K1349" t="inlineStr"/>
+      <c r="J1349" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1349" t="n">
         <v>1</v>
       </c>
@@ -45160,8 +45694,14 @@
         <v>0</v>
       </c>
       <c r="I1350" t="inlineStr"/>
-      <c r="J1350" t="inlineStr"/>
-      <c r="K1350" t="inlineStr"/>
+      <c r="J1350" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1350" t="n">
         <v>1</v>
       </c>
@@ -45193,8 +45733,14 @@
         <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
-      <c r="J1351" t="inlineStr"/>
-      <c r="K1351" t="inlineStr"/>
+      <c r="J1351" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1351" t="n">
         <v>1</v>
       </c>
@@ -45226,8 +45772,14 @@
         <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
-      <c r="J1352" t="inlineStr"/>
-      <c r="K1352" t="inlineStr"/>
+      <c r="J1352" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1352" t="n">
         <v>1</v>
       </c>
@@ -45259,8 +45811,14 @@
         <v>0</v>
       </c>
       <c r="I1353" t="inlineStr"/>
-      <c r="J1353" t="inlineStr"/>
-      <c r="K1353" t="inlineStr"/>
+      <c r="J1353" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1353" t="n">
         <v>1</v>
       </c>
@@ -45292,8 +45850,14 @@
         <v>0</v>
       </c>
       <c r="I1354" t="inlineStr"/>
-      <c r="J1354" t="inlineStr"/>
-      <c r="K1354" t="inlineStr"/>
+      <c r="J1354" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1354" t="n">
         <v>1</v>
       </c>
@@ -45325,8 +45889,14 @@
         <v>0</v>
       </c>
       <c r="I1355" t="inlineStr"/>
-      <c r="J1355" t="inlineStr"/>
-      <c r="K1355" t="inlineStr"/>
+      <c r="J1355" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K1355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1355" t="n">
         <v>1</v>
       </c>
